--- a/tasks/mcra/examples/task_input/test_mcra_action_template/Data/HazardCharacterisations.xlsx
+++ b/tasks/mcra/examples/task_input/test_mcra_action_template/Data/HazardCharacterisations.xlsx
@@ -684,12 +684,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>POP1</t>
+          <t>POP_EU_ADULT_2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dietary</t>
+          <t>Oral</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ARfD</t>
+          <t>Arfd</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>Equals</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>mg/kg bw/day</t>
+          <t>mgPerKgBWPerDay</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -744,26 +744,26 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Test study</t>
+          <t>EU peer review summary</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Doe et al.</t>
+          <t>Synthetic et al.</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Test HC</t>
+          <t>Chlorpyrifos ARfD</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Test hazard characterisation</t>
+          <t>Synthetic hazard characterisation for test run</t>
         </is>
       </c>
     </row>
